--- a/project/uploads/93/split_output/19翻整模.xlsx
+++ b/project/uploads/93/split_output/19翻整模.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B87E1C20-8A9A-4535-8456-A27E4DA88EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5304862-2CEB-4CA9-9DB1-B6CFB4788612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7E57693C-4A9D-4271-AB7B-3C55D8664096}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" xr2:uid="{8E775594-1BBC-4885-96F8-9479BA700EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="19翻整模" sheetId="1" r:id="rId1"/>
@@ -2385,8 +2385,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="2" xr:uid="{97FF1EFB-D0CA-4D0E-8EF1-BC07051EB0DB}"/>
-    <cellStyle name="常规 6 2" xfId="3" xr:uid="{7F89CC0A-68CE-4FC1-A489-9D0B00FBAA63}"/>
+    <cellStyle name="常规 6" xfId="2" xr:uid="{0425D8D5-6020-4818-B481-8588C594A943}"/>
+    <cellStyle name="常规 6 2" xfId="3" xr:uid="{45428529-B0DF-446C-8424-F21EF5E038DA}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2422,7 +2422,7 @@
         <xdr:cNvPr id="2" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714B77F5-743C-4BB0-87B3-430786E8638A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DCCC6F-A220-4930-8094-33F2FD198D67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,8 +2439,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1702435" y="12221210"/>
-          <a:ext cx="1000125" cy="632460"/>
+          <a:off x="1701165" y="12492990"/>
+          <a:ext cx="1000125" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2474,7 +2474,7 @@
         <xdr:cNvPr id="3" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E6847E-33A2-4B8F-B2DD-8B9B6D782BCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD80122E-33F1-4DCF-AB01-80C9CCCEDB77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,8 +2491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4318635" y="12268835"/>
-          <a:ext cx="1047750" cy="632460"/>
+          <a:off x="4317365" y="12540615"/>
+          <a:ext cx="1047750" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2518,15 +2518,15 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>204304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="CheckBox3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32C8746-E95B-49D3-BE05-820EBA07145E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695F08B3-8B30-48EA-81A2-7EBA59970356}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,8 +2549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1836420" y="11586210"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1835150" y="11842750"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2591,7 +2591,7 @@
         <xdr:cNvPr id="5" name="CheckBox4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7232E6A3-1D2E-4205-8E7F-C7E12EC9A47D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED6B722-BDE3-45A6-A18B-9AF27EEDDC4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,8 +2614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4408170" y="11605260"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="4406900" y="11861800"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2656,7 +2656,7 @@
         <xdr:cNvPr id="6" name="CheckBox5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9E07FB-61DB-48CA-A6C4-C43C78BB5340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504EB892-3326-452F-B0DF-13797418DB17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2679,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1835150" y="11976735"/>
+          <a:off x="1833880" y="12243435"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2721,7 +2721,7 @@
         <xdr:cNvPr id="7" name="CheckBox9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952693FC-6A64-4AF1-BF6A-52226562AED4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47158196-C97A-4FA0-AA6E-F1C6D1375DA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,8 +2744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5442254" y="28030170"/>
-          <a:ext cx="152400" cy="179071"/>
+          <a:off x="5440984" y="28619450"/>
+          <a:ext cx="152400" cy="184151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2786,7 +2786,7 @@
         <xdr:cNvPr id="8" name="CheckBox10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42295CF9-8A88-4E5E-9284-2907E4E43034}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA53B7E-FE5E-4B7C-89D0-D912EA1EADFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2809,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1893570" y="28020645"/>
+          <a:off x="1892300" y="28609925"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2851,7 +2851,7 @@
         <xdr:cNvPr id="9" name="CheckBox11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F26EE2-3970-462C-818D-19F4353EE802}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DB6758-B660-4372-AF3F-115048D36A16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,8 +2874,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1884045" y="28435935"/>
-          <a:ext cx="152400" cy="179069"/>
+          <a:off x="1882775" y="29035375"/>
+          <a:ext cx="152400" cy="184149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2916,7 +2916,7 @@
         <xdr:cNvPr id="10" name="CheckBox12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC07B382-2083-416E-8C02-F507CB1B5BD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5D340C-3D05-46E4-9A01-1CEE2C07FE4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +2939,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3789045" y="28407360"/>
+          <a:off x="3787775" y="29006800"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2981,7 +2981,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A31963-2667-42DB-BBA0-88E21C8D4EF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53563855-BAD3-4CE6-B08A-255B08C665BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,8 +2997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1386840" y="25468580"/>
-          <a:ext cx="5918835" cy="1798955"/>
+          <a:off x="1385570" y="25989280"/>
+          <a:ext cx="5918835" cy="1844675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3029,7 +3029,7 @@
         <xdr:cNvPr id="12" name="CheckBox10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9855A878-15A5-45B4-8CD1-1CDB7558FC69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5035B30B-F0E5-42A4-825D-1605EA079E7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,8 +3052,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5341620" y="28435935"/>
-          <a:ext cx="152400" cy="176530"/>
+          <a:off x="5340350" y="29035375"/>
+          <a:ext cx="152400" cy="181610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3094,7 +3094,7 @@
         <xdr:cNvPr id="13" name="CheckBox5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E389CC-8766-4F23-965D-C39B7B0CB039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF72D3A-9487-4303-B3D4-F4D68B527134}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3117,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4371975" y="11979275"/>
+          <a:off x="4370705" y="12245975"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3159,7 +3159,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA51C45A-3D86-4DB3-9FF7-18D1C56ABD05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68A7117-3348-4344-842F-953511C15790}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,8 +3175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1652905" y="15829915"/>
-          <a:ext cx="2732405" cy="2708275"/>
+          <a:off x="1651635" y="16165195"/>
+          <a:ext cx="2732405" cy="2779395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3207,7 +3207,7 @@
         <xdr:cNvPr id="15" name="右箭头 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5775E0-63E8-4A69-9C56-20E1C3A4314C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E78CB9-2156-4E30-9B53-4ECEB4BD30FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3215,8 +3215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4107180" y="17082135"/>
-          <a:ext cx="1176020" cy="485775"/>
+          <a:off x="4105910" y="17447895"/>
+          <a:ext cx="1176020" cy="501015"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3263,7 +3263,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59E7409-4E3F-45AC-A5ED-A7E7B6DA2A8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF4BDFA-915B-402C-9B8B-F466F3A89D21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3279,8 +3279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438275" y="2012315"/>
-          <a:ext cx="5715000" cy="1676400"/>
+          <a:off x="1437005" y="2063115"/>
+          <a:ext cx="5715000" cy="1717040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3311,7 +3311,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8700CCD5-1DA7-4A39-BD84-4DDE45726DDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36453C3D-8EE6-434F-8DB6-9E7CD11C16D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3327,8 +3327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2084070" y="472440"/>
-          <a:ext cx="2534920" cy="1366520"/>
+          <a:off x="2082800" y="482600"/>
+          <a:ext cx="2534920" cy="1402080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3359,7 +3359,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860A8C94-5022-478C-8CB8-E9E491A97A55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116FA41A-BE98-45BB-94A7-14ED89AE4A75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,8 +3375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7794625" y="133985"/>
-          <a:ext cx="3580765" cy="4157345"/>
+          <a:off x="7792085" y="133985"/>
+          <a:ext cx="3580765" cy="4253865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3407,7 +3407,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FB7E39-E7F8-4BFA-BD0B-0A7E86B5D1B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E05440-9804-49CE-97D6-D64273208132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3423,8 +3423,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562735" y="9124315"/>
-          <a:ext cx="3423285" cy="918845"/>
+          <a:off x="1561465" y="9317355"/>
+          <a:ext cx="3423285" cy="939165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3455,7 +3455,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E99BB7-E4CE-4606-B567-A116A6805980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB0426F-2BF4-4C63-8D1C-2F5D40E2F91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,8 +3471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419860" y="6828790"/>
-          <a:ext cx="3995420" cy="1953895"/>
+          <a:off x="1418590" y="6960870"/>
+          <a:ext cx="3995420" cy="2004695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3503,7 +3503,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D92C5C-6886-4C7D-82D1-D805F10925E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F418FA-DF59-49E6-B03A-B4A045D45D25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3519,8 +3519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495925" y="6756400"/>
-          <a:ext cx="3413760" cy="2489200"/>
+          <a:off x="5494655" y="6888480"/>
+          <a:ext cx="3412490" cy="2550160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3551,7 +3551,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669878DA-C386-4601-9A8C-5DEA517B02CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E075B6D3-6397-480E-BEB4-793682C56CDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,8 +3567,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353685" y="15706725"/>
-          <a:ext cx="2486025" cy="2882265"/>
+          <a:off x="5352415" y="16036925"/>
+          <a:ext cx="2484755" cy="2958465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3599,7 +3599,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605A137A-2E86-4F40-8BD7-247B67BCB048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1241E2AD-D526-4F80-90DB-A759C17E1655}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3615,8 +3615,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1463040" y="20164425"/>
-          <a:ext cx="5994400" cy="2364105"/>
+          <a:off x="1461770" y="20588605"/>
+          <a:ext cx="5994400" cy="2425065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3647,7 +3647,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DD3963-1394-4790-84C4-3C5DA95C82CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97E88A6-528D-4A8A-A907-D6AD7D47F7B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3663,8 +3663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1595755" y="31886525"/>
-          <a:ext cx="3757930" cy="1380490"/>
+          <a:off x="1594485" y="32552005"/>
+          <a:ext cx="3757930" cy="1416050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3688,14 +3688,14 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>528955</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>194310</xdr:rowOff>
+      <xdr:rowOff>201930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CAB5C4-0B81-46BF-A920-04EF7FFA3929}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6009DEC1-BF51-4E0A-BD02-43195B1A67EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3711,8 +3711,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7825740" y="9573895"/>
-          <a:ext cx="7958455" cy="2583815"/>
+          <a:off x="7823200" y="9777095"/>
+          <a:ext cx="7958455" cy="2654935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9323,7 +9323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B34CED-FE9D-4B7D-8403-05F265673160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97662EF2-2DA5-4582-BCBD-5BF6642A8111}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9333,14 +9333,14 @@
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="94" style="63" customWidth="1"/>
-    <col min="3" max="16384" width="10" style="2"/>
+    <col min="1" max="1" width="18.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="92.26953125" style="63" customWidth="1"/>
+    <col min="3" max="16384" width="9.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -9360,87 +9360,87 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="9"/>
       <c r="D19" s="3"/>
@@ -9450,22 +9450,22 @@
       <c r="B20" s="10"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="11"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="11"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>5</v>
       </c>
@@ -9474,123 +9474,123 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="15"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="17"/>
     </row>
-    <row r="29" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="18"/>
     </row>
-    <row r="30" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="18"/>
     </row>
-    <row r="31" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="18"/>
     </row>
-    <row r="32" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="18"/>
     </row>
-    <row r="34" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="18"/>
     </row>
-    <row r="35" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="18"/>
     </row>
-    <row r="36" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="18"/>
     </row>
-    <row r="37" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="18"/>
     </row>
-    <row r="40" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
     </row>
-    <row r="41" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="18"/>
     </row>
-    <row r="42" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="18"/>
     </row>
-    <row r="43" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="18"/>
     </row>
-    <row r="44" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="19"/>
     </row>
-    <row r="45" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="20"/>
     </row>
-    <row r="46" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="20"/>
     </row>
-    <row r="48" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="20"/>
     </row>
-    <row r="49" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="20"/>
     </row>
-    <row r="50" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="20"/>
     </row>
-    <row r="51" spans="1:2" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
     </row>
-    <row r="52" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>10</v>
       </c>
@@ -9598,41 +9598,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="25"/>
     </row>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="26"/>
     </row>
-    <row r="58" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="27"/>
     </row>
-    <row r="60" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="28" t="s">
         <v>15</v>
@@ -9642,7 +9642,7 @@
       <c r="A61" s="29"/>
       <c r="B61" s="23"/>
     </row>
-    <row r="62" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>16</v>
       </c>
@@ -9650,107 +9650,107 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="24"/>
     </row>
-    <row r="69" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="34"/>
     </row>
-    <row r="71" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="35"/>
     </row>
-    <row r="72" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="35"/>
     </row>
-    <row r="73" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="35"/>
     </row>
-    <row r="74" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
       <c r="B74" s="35"/>
     </row>
-    <row r="75" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="35"/>
     </row>
-    <row r="76" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="35"/>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="35"/>
     </row>
-    <row r="78" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="35"/>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="35"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="35"/>
     </row>
-    <row r="81" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="35"/>
     </row>
-    <row r="82" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="35"/>
     </row>
-    <row r="83" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="35"/>
     </row>
-    <row r="84" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="36"/>
     </row>
-    <row r="85" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="31" t="s">
         <v>24</v>
@@ -9762,63 +9762,63 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="24"/>
     </row>
-    <row r="88" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="37"/>
     </row>
-    <row r="89" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="38"/>
     </row>
-    <row r="90" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="39"/>
     </row>
-    <row r="91" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="39"/>
     </row>
-    <row r="92" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="39"/>
     </row>
-    <row r="93" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="39"/>
     </row>
-    <row r="94" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="39"/>
     </row>
-    <row r="95" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="39"/>
     </row>
-    <row r="96" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
       <c r="B96" s="39"/>
     </row>
-    <row r="97" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
       <c r="B97" s="39"/>
     </row>
-    <row r="98" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
       <c r="B98" s="39"/>
     </row>
-    <row r="99" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="32"/>
       <c r="B99" s="39"/>
     </row>
-    <row r="100" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32"/>
       <c r="B100" s="39"/>
     </row>
-    <row r="101" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32"/>
       <c r="B101" s="39"/>
     </row>
@@ -9828,7 +9828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
       <c r="B103" s="33" t="s">
         <v>27</v>
@@ -9840,13 +9840,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="32"/>
       <c r="B105" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32"/>
       <c r="B106" s="24"/>
     </row>
@@ -9856,79 +9856,79 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32"/>
       <c r="B108" s="40"/>
     </row>
-    <row r="109" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32"/>
       <c r="B109" s="41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32"/>
       <c r="B110" s="42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32"/>
       <c r="B111" s="44"/>
     </row>
-    <row r="112" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32"/>
       <c r="B112" s="45"/>
     </row>
-    <row r="113" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
       <c r="B113" s="45"/>
     </row>
-    <row r="114" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
       <c r="B114" s="45"/>
     </row>
-    <row r="115" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
       <c r="B115" s="45"/>
     </row>
-    <row r="116" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
       <c r="B116" s="45"/>
     </row>
-    <row r="117" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="32"/>
       <c r="B117" s="45"/>
     </row>
-    <row r="118" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32"/>
       <c r="B118" s="45"/>
     </row>
-    <row r="119" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="32"/>
       <c r="B119" s="45"/>
     </row>
-    <row r="120" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32"/>
       <c r="B120" s="45"/>
     </row>
-    <row r="121" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
       <c r="B121" s="45"/>
     </row>
-    <row r="122" spans="1:2" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
       <c r="B122" s="46"/>
     </row>
-    <row r="123" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32"/>
       <c r="B123" s="24"/>
     </row>
-    <row r="124" spans="1:2" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
       <c r="B124" s="48"/>
     </row>
-    <row r="125" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>33</v>
       </c>
@@ -9936,35 +9936,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32"/>
       <c r="B126" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32"/>
       <c r="B127" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="32"/>
       <c r="B128" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="49"/>
       <c r="B129" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="50"/>
       <c r="B130" s="51"/>
     </row>
-    <row r="131" spans="1:2" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>39</v>
       </c>
@@ -9972,17 +9972,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="52"/>
     </row>
-    <row r="133" spans="1:2" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
       <c r="B134" s="54"/>
     </row>
@@ -9990,7 +9990,7 @@
       <c r="A135" s="55"/>
       <c r="B135" s="48"/>
     </row>
-    <row r="136" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="56" t="s">
         <v>42</v>
       </c>
@@ -9998,77 +9998,77 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="58"/>
       <c r="B137" s="57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
       <c r="B138" s="57"/>
     </row>
-    <row r="139" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="58"/>
       <c r="B139" s="57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="58"/>
       <c r="B140" s="57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="58"/>
       <c r="B141" s="59"/>
     </row>
-    <row r="142" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="58"/>
       <c r="B142" s="60"/>
     </row>
-    <row r="143" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="58"/>
       <c r="B143" s="60"/>
     </row>
-    <row r="144" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="58"/>
       <c r="B144" s="60"/>
     </row>
-    <row r="145" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="58"/>
       <c r="B145" s="60"/>
     </row>
-    <row r="146" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="58"/>
       <c r="B146" s="60"/>
     </row>
-    <row r="147" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="58"/>
       <c r="B147" s="60"/>
     </row>
-    <row r="148" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="58"/>
       <c r="B148" s="60"/>
     </row>
-    <row r="149" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="58"/>
       <c r="B149" s="60"/>
     </row>
-    <row r="150" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="58"/>
       <c r="B150" s="60"/>
     </row>
-    <row r="151" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="58"/>
       <c r="B151" s="60"/>
     </row>
-    <row r="152" spans="1:2" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="61"/>
       <c r="B152" s="62"/>
     </row>
-    <row r="153" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A136:A152"/>
@@ -10088,7 +10088,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{8CCEB098-51E5-49F5-B269-BEEB64A93CBF}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{A51B7282-40DF-4451-82B7-08EF27BC70E2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
